--- a/acc_pass.xlsx
+++ b/acc_pass.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>学号</t>
   </si>
   <si>
-    <t>2019331201091</t>
-  </si>
-  <si>
     <t>密码</t>
-  </si>
-  <si>
-    <t>Ll13108857666</t>
   </si>
 </sst>
 </file>
@@ -33,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +48,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -62,15 +57,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,42 +124,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,7 +141,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,52 +180,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +194,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -212,13 +230,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,157 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +385,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,11 +416,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,17 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,29 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,10 +491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,139 +503,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -964,7 +957,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -976,16 +969,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>123456</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>12346</v>
       </c>
     </row>
   </sheetData>

--- a/acc_pass.xlsx
+++ b/acc_pass.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -42,6 +42,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -49,29 +86,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,32 +108,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -133,53 +154,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,19 +194,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,31 +326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,25 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,97 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,10 +390,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -410,24 +426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,9 +447,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,10 +491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -503,133 +503,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,7 +957,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12346</v>
+        <v>13456</v>
       </c>
     </row>
   </sheetData>
